--- a/POA&M Template.xlsx
+++ b/POA&M Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/temp/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/GRC/CMMC/Github docs/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{CAC3D8AB-7CBE-4611-AE59-707C90A984ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01255DF4-6EA7-46EB-BA06-0FB02C3217AC}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{CAC3D8AB-7CBE-4611-AE59-707C90A984ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B160C7C-37E6-49F1-8D14-1115A6B1C56F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>3.1.2</t>
   </si>
@@ -128,10 +128,25 @@
 Regular Access Reviews and Audits: Conduct periodic access reviews and audits to verify that permissions align with defined policies and adjust access levels as needed to maintain compliance and minimize risk.</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Actual Completion Date</t>
   </si>
   <si>
-    <t>Actual Completion Date</t>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.1[b]</t>
+  </si>
+  <si>
+    <t>WK-002</t>
+  </si>
+  <si>
+    <t>Implement device authentication measures, such as certificates or endpoint security solutions, to ensure that only approved devices can connect to the system.</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>The system does not enforce access controls for devices, allowing unauthorized devices to potentially gain access to sensitive resources. There are inadequate mechanisms in place to verify the identity of devices attempting to connect to the system, increasing the risk of unauthorized access.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -233,6 +248,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,9 +329,9 @@
     <tableColumn id="7" xr3:uid="{7F31367C-2CC8-4EAB-B8BB-F1F6A710BBB8}" name="Mitigation Description" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{35038DD5-2D5B-4922-938A-F967D8DA7E07}" name="Identified Date" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{FD082245-C988-4A4C-9006-EACAA948CCCA}" name="Target Completion Date" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2B2898B2-8ABB-4993-B73F-D75EBB58C013}" name="Actual Completion Date" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{20755F2B-A8B2-48CC-BCE6-0971A8CD8387}" name="Responsible" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{F13DDA76-4D47-46BB-B382-6A9FB30EF2D3}" name="POA&amp;M Status" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2B2898B2-8ABB-4993-B73F-D75EBB58C013}" name="Actual Completion Date" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{20755F2B-A8B2-48CC-BCE6-0971A8CD8387}" name="Responsible" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{F13DDA76-4D47-46BB-B382-6A9FB30EF2D3}" name="POA&amp;M Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,7 +657,7 @@
   <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L320" sqref="L320"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -718,32 +736,50 @@
         <v>17</v>
       </c>
       <c r="H2" s="6">
-        <v>45590</v>
+        <v>45536</v>
       </c>
-      <c r="I2" s="7">
-        <v>45649</v>
+      <c r="I2" s="6">
+        <v>45566</v>
       </c>
-      <c r="J2" s="7">
-        <v>45963</v>
+      <c r="J2" s="6">
+        <v>45597</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45527</v>
+      </c>
+      <c r="I3" s="6">
+        <v>45641</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
